--- a/data/gmin/01_gmin.xlsx
+++ b/data/gmin/01_gmin.xlsx
@@ -1,47 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10 Pro x64\ownCloud - florian.wilms01@stud.uni-goettingen.de@owncloud.gwdg.de\EAM\04\msc\gmin_cc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\data\gmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16400A59-3EF4-40F7-B960-287846377C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C52911-AEF9-4564-9157-9A3FA82CCEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FREX_05" sheetId="5" r:id="rId1"/>
-    <sheet name="FREX_06" sheetId="4" r:id="rId2"/>
-    <sheet name="FREX_07" sheetId="3" r:id="rId3"/>
-    <sheet name="FREX_08" sheetId="2" r:id="rId4"/>
-    <sheet name="FASY_1" sheetId="6" r:id="rId5"/>
-    <sheet name="FASY_2" sheetId="7" r:id="rId6"/>
-    <sheet name="FASY_3" sheetId="8" r:id="rId7"/>
-    <sheet name="FASY4" sheetId="9" r:id="rId8"/>
+    <sheet name="sample_leaf_area" sheetId="10" r:id="rId1"/>
+    <sheet name="FREX_05" sheetId="5" r:id="rId2"/>
+    <sheet name="FREX_06" sheetId="4" r:id="rId3"/>
+    <sheet name="FREX_07" sheetId="3" r:id="rId4"/>
+    <sheet name="FREX_08" sheetId="2" r:id="rId5"/>
+    <sheet name="FASY_01" sheetId="6" r:id="rId6"/>
+    <sheet name="FASY_02" sheetId="7" r:id="rId7"/>
+    <sheet name="FASY_03" sheetId="8" r:id="rId8"/>
+    <sheet name="FASY_04" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="34">
   <si>
     <t>FREX_08</t>
   </si>
@@ -116,6 +108,33 @@
   </si>
   <si>
     <t>FASY_4</t>
+  </si>
+  <si>
+    <t>FASY_01</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>FASY_02</t>
+  </si>
+  <si>
+    <t>FASY_03</t>
+  </si>
+  <si>
+    <t>FASY_04</t>
+  </si>
+  <si>
+    <t>leaf_nr</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>leaf_area_cm2</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -321,8 +340,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +359,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1019,7 +1038,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1692,7 +1711,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2347,7 +2366,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3008,7 +3027,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3687,7 +3706,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4366,7 +4385,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4447,7 +4466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FASY_3!$A$2</c:f>
+              <c:f>FASY_03!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4482,7 +4501,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FASY_3!$J$2:$J$26</c:f>
+              <c:f>FASY_03!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4566,7 +4585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FASY_3!$K$2:$K$26</c:f>
+              <c:f>FASY_03!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4969,7 +4988,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5050,7 +5069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FASY4!$A$2</c:f>
+              <c:f>FASY_04!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5085,7 +5104,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FASY4!$J$2:$J$25</c:f>
+              <c:f>FASY_04!$J$2:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5166,7 +5185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FASY4!$K$2:$K$25</c:f>
+              <c:f>FASY_04!$K$2:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10356,7 +10375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10651,25 +10670,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F758EF-B9EE-470C-AF6A-0741BB4649D3}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>7.6757999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>17.239799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>23.5443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>20.057600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>78.333600000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>149.97300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>52.385800000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>94.484099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
@@ -12363,7 +12500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO43"/>
   <sheetViews>
@@ -12371,18 +12508,18 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
@@ -14219,27 +14356,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="4"/>
-    <col min="11" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="4"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
@@ -15598,26 +15735,14 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="16">
-        <v>0</v>
-      </c>
+      <c r="H25" s="16"/>
       <c r="I25" s="14"/>
       <c r="J25" s="39"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="11">
-        <v>50</v>
-      </c>
-      <c r="M25" s="11">
-        <v>35</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="0"/>
-        <v>5.5765782906939352</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="1"/>
-        <v>2.7497920565551948E-2</v>
-      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
@@ -15629,26 +15754,14 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="14"/>
       <c r="J26" s="39"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11">
-        <v>50</v>
-      </c>
-      <c r="M26" s="11">
-        <v>36</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="0"/>
-        <v>5.8912649029733304</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>2.9049629699079538E-2</v>
-      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
@@ -15893,27 +16006,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="87" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="4"/>
-    <col min="11" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="4"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
@@ -17307,26 +17420,14 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="14"/>
       <c r="J26" s="39"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11">
-        <v>50</v>
-      </c>
-      <c r="M26" s="11">
-        <v>25</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
@@ -17571,27 +17672,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD785F4-DCA1-438E-A07D-23377B54673E}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H27" sqref="H27:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="4"/>
-    <col min="11" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="4"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93">
@@ -19020,26 +19121,14 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="14"/>
       <c r="J27" s="39"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11">
-        <v>50</v>
-      </c>
-      <c r="M27" s="11">
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
@@ -19264,18 +19353,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD861CA7-8675-4C20-855B-AC0FAF6043E3}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H27" sqref="H27:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="41"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -20228,26 +20317,14 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="14"/>
       <c r="J27" s="39"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11">
-        <v>50</v>
-      </c>
-      <c r="M27" s="11">
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
@@ -20257,19 +20334,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8569F45-58A8-463F-8586-8B867E2BBBF5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H27" sqref="H27:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="41"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -21222,26 +21299,14 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="14"/>
       <c r="J27" s="39"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11">
-        <v>50</v>
-      </c>
-      <c r="M27" s="11">
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
@@ -21251,19 +21316,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9930C3-6BAD-4E5C-BE7C-B2134AE9AE9E}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="41"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -22181,26 +22246,14 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="14"/>
       <c r="J26" s="39"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11">
-        <v>50</v>
-      </c>
-      <c r="M26" s="11">
-        <v>25</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
@@ -22212,26 +22265,14 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="14"/>
       <c r="J27" s="39"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11">
-        <v>50</v>
-      </c>
-      <c r="M27" s="11">
-        <v>25</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1477502925807972</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5521451146848112E-2</v>
-      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>

--- a/data/gmin/01_gmin.xlsx
+++ b/data/gmin/01_gmin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\data\gmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C52911-AEF9-4564-9157-9A3FA82CCEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC03A02-D4F2-48CD-AB16-6A00F36F8C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_leaf_area" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="29">
   <si>
     <t>FREX_08</t>
   </si>
@@ -98,22 +98,7 @@
     <t>FREX_05</t>
   </si>
   <si>
-    <t>FASY_1</t>
-  </si>
-  <si>
-    <t>FASY_2</t>
-  </si>
-  <si>
-    <t>FASY_3</t>
-  </si>
-  <si>
-    <t>FASY_4</t>
-  </si>
-  <si>
     <t>FASY_01</t>
-  </si>
-  <si>
-    <t>sample_id</t>
   </si>
   <si>
     <t>FASY_02</t>
@@ -4470,7 +4455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FASY_3</c:v>
+                  <c:v>FASY_03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5073,7 +5058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FASY_4</c:v>
+                  <c:v>FASY_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10673,8 +10658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F758EF-B9EE-470C-AF6A-0741BB4649D3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10685,21 +10670,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>7.6757999999999997</v>
@@ -10707,10 +10692,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>17.239799999999999</v>
@@ -10718,10 +10703,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
       <c r="C4">
         <v>23.5443</v>
@@ -10729,10 +10714,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>20.057600000000001</v>
@@ -10743,7 +10728,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>78.333600000000004</v>
@@ -10754,7 +10739,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>149.97300000000001</v>
@@ -10765,7 +10750,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>52.385800000000003</v>
@@ -10776,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>94.484099999999998</v>
@@ -10791,8 +10776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -10943,7 +10928,7 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="D2" s="27">
-        <v>13.9397</v>
+        <v>13.9354</v>
       </c>
       <c r="E2" s="27">
         <v>12.604900000000001</v>
@@ -12504,7 +12489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -14541,11 +14526,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N26" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N24" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O26" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O24" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
@@ -16191,11 +16176,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N26" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N25" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O26" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O25" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
@@ -17676,8 +17661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD785F4-DCA1-438E-A07D-23377B54673E}">
   <dimension ref="A1:CO40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -17857,11 +17842,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N27" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N26" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O27" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O26" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
@@ -19358,7 +19343,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:O27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -19459,11 +19444,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N27" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N26" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O27" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O26" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
@@ -20339,7 +20324,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:O27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -20441,11 +20426,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N27" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N26" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O27" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O26" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
@@ -21321,7 +21306,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -21423,11 +21408,11 @@
         <v>25</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N27" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
+        <f t="shared" ref="N2:N25" si="0">(610.78*2.71828^(M2/(M2+238.3)*17.2694))/1000</f>
         <v>3.1477502925807972</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O27" si="1">(1-(L2/100))*(N2/F$2)</f>
+        <f t="shared" ref="O2:O25" si="1">(1-(L2/100))*(N2/F$2)</f>
         <v>1.5521451146848112E-2</v>
       </c>
       <c r="P2" s="21"/>
